--- a/DSSportCompetitionSys/Template/8Template.xlsx
+++ b/DSSportCompetitionSys/Template/8Template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20351"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDEA0AD-BD87-4D49-A947-23B4448AF1F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7AEFCD-105C-4644-9471-08EFB99F1BC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>杜甫(浙江队)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,11 +53,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Hello World</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2nd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hello World</t>
+    <t>杜甫(浙江队)杜甫(浙江队)杜甫(浙江队)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,10 +111,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -114,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -182,41 +196,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,451 +578,475 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="14" max="14" width="21.44140625" customWidth="1"/>
+    <col min="9" max="9" width="3.77734375" style="5"/>
+    <col min="11" max="11" width="3.77734375" style="5"/>
+    <col min="14" max="14" width="21.44140625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="1:16" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="M15" s="11">
         <v>8</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="M15" s="2">
+      <c r="N15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="17"/>
+    </row>
+    <row r="16" spans="1:16" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="L16" s="14">
+        <v>4</v>
+      </c>
+      <c r="M16" s="11"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+    </row>
+    <row r="17" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="K17" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="L17" s="15"/>
+      <c r="M17" s="11">
+        <v>7</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+    </row>
+    <row r="18" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="J18" s="11">
+        <v>6</v>
+      </c>
+      <c r="M18" s="11"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Z18" s="23"/>
+    </row>
+    <row r="19" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="11"/>
+      <c r="M19" s="11">
+        <v>6</v>
+      </c>
+      <c r="N19" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="O19" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="P19" s="17"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="E20" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="L20" s="14">
+        <v>3</v>
+      </c>
+      <c r="M20" s="11"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="U20" s="19"/>
+    </row>
+    <row r="21" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="12"/>
+      <c r="K21" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="L21" s="15"/>
+      <c r="M21" s="11">
         <v>5</v>
       </c>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="12">
+      <c r="N21" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+    </row>
+    <row r="22" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="11">
+        <v>7</v>
+      </c>
+      <c r="M22" s="11"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+    </row>
+    <row r="23" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="11"/>
+      <c r="M23" s="11">
+        <v>4</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="17"/>
+    </row>
+    <row r="24" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="6">
         <v>3.5</v>
       </c>
-      <c r="L16" s="6">
-        <v>4</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="1:18" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="12">
+      <c r="L24" s="14">
+        <v>2</v>
+      </c>
+      <c r="M24" s="11"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+    </row>
+    <row r="25" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="6">
         <v>3.5</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K25" s="7">
         <v>6.5</v>
       </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="2">
-        <v>7</v>
-      </c>
-      <c r="N17" s="4" t="s">
+      <c r="L25" s="15"/>
+      <c r="M25" s="11">
+        <v>3</v>
+      </c>
+      <c r="N25" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:18" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="2">
-        <v>6</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="1:18" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="F19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="2"/>
-      <c r="M19" s="2">
-        <v>6</v>
-      </c>
-      <c r="N19" s="4" t="s">
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+    </row>
+    <row r="26" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="11">
+        <v>5</v>
+      </c>
+      <c r="M26" s="11"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+    </row>
+    <row r="27" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="11"/>
+      <c r="M27" s="11">
+        <v>2</v>
+      </c>
+      <c r="N27" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="P19" s="8"/>
-      <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="1:18" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="F20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="11">
+      <c r="O27" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="P27" s="17"/>
+    </row>
+    <row r="28" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="7">
         <v>6.5</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="12">
+      <c r="J28" s="1"/>
+      <c r="K28" s="6">
         <v>3.5</v>
       </c>
-      <c r="L20" s="6">
-        <v>3</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="1:18" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="F21" s="5"/>
-      <c r="K21" s="11">
+      <c r="L28" s="14">
+        <v>1</v>
+      </c>
+      <c r="M28" s="11"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+    </row>
+    <row r="29" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="K29" s="7">
         <v>6.5</v>
       </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="2">
-        <v>5</v>
-      </c>
-      <c r="N21" s="4" t="s">
+      <c r="L29" s="15"/>
+      <c r="M29" s="11">
         <v>1</v>
       </c>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-    </row>
-    <row r="22" spans="1:18" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="9"/>
-      <c r="H22" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-    </row>
-    <row r="23" spans="1:18" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="10"/>
-      <c r="F23" s="5"/>
-      <c r="H23" s="10"/>
-      <c r="M23" s="2">
-        <v>4</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="8"/>
-    </row>
-    <row r="24" spans="1:18" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="2">
-        <v>7</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="L24" s="6">
-        <v>2</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-    </row>
-    <row r="25" spans="1:18" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="K25" s="11">
-        <v>6.5</v>
-      </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="2">
-        <v>3</v>
-      </c>
-      <c r="N25" s="4" t="s">
+      <c r="N29" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-    </row>
-    <row r="26" spans="1:18" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="2">
-        <v>5</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-    </row>
-    <row r="27" spans="1:18" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="2"/>
-      <c r="M27" s="2">
-        <v>2</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="P27" s="8"/>
-    </row>
-    <row r="28" spans="1:18" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="11">
-        <v>6.5</v>
-      </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="L28" s="6">
-        <v>1</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-    </row>
-    <row r="29" spans="1:18" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="K29" s="11">
-        <v>6.5</v>
-      </c>
-      <c r="L29" s="7"/>
-      <c r="M29" s="2">
-        <v>1</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-    </row>
-    <row r="30" spans="1:18" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+    </row>
+    <row r="30" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="G24:G25"/>
+  <mergeCells count="33">
     <mergeCell ref="A1:C45"/>
     <mergeCell ref="O27:P30"/>
     <mergeCell ref="O23:P26"/>
@@ -984,7 +1060,8 @@
     <mergeCell ref="N29:N30"/>
     <mergeCell ref="L16:L17"/>
     <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="G20:G23"/>
     <mergeCell ref="L28:L29"/>
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="N21:N22"/>
@@ -992,12 +1069,17 @@
     <mergeCell ref="N23:N24"/>
     <mergeCell ref="M25:M26"/>
     <mergeCell ref="N25:N26"/>
-    <mergeCell ref="M17:M18"/>
     <mergeCell ref="M15:M16"/>
     <mergeCell ref="N15:N16"/>
     <mergeCell ref="N17:N18"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="N19:N20"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I18:I19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DSSportCompetitionSys/Template/8Template.xlsx
+++ b/DSSportCompetitionSys/Template/8Template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20351"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7AEFCD-105C-4644-9471-08EFB99F1BC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04803AA5-BF3B-4EA3-ACA8-22DCC42F2A93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>杜甫(浙江队)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,6 @@
   </si>
   <si>
     <t>杜甫(浙江队)杜甫(浙江队)杜甫(浙江队)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -232,43 +228,43 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,7 +577,7 @@
   <dimension ref="A1:Z45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:E22"/>
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -592,461 +588,446 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:16" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="M15" s="11">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="M15" s="16">
         <v>8</v>
       </c>
-      <c r="N15" s="13" t="s">
+      <c r="N15" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="17" t="s">
+      <c r="O15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="17"/>
+      <c r="P15" s="14"/>
     </row>
     <row r="16" spans="1:16" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
       <c r="I16" s="8"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="L16" s="14">
+      <c r="K16" s="6"/>
+      <c r="L16" s="18">
         <v>4</v>
       </c>
-      <c r="M16" s="11"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="K17" s="7">
-        <v>6.5</v>
-      </c>
-      <c r="L17" s="15"/>
-      <c r="M17" s="11">
+      <c r="I17" s="9"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="16">
         <v>7</v>
       </c>
-      <c r="N17" s="13" t="s">
+      <c r="N17" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
     </row>
     <row r="18" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
       <c r="G18" s="1"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="16">
         <v>6</v>
       </c>
-      <c r="M18" s="11"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Z18" s="23"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Z18" s="13"/>
     </row>
     <row r="19" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="9">
-        <v>3.5</v>
-      </c>
+      <c r="G19" s="9"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="11"/>
-      <c r="M19" s="11">
+      <c r="I19" s="23"/>
+      <c r="J19" s="16"/>
+      <c r="M19" s="16">
         <v>6</v>
       </c>
-      <c r="N19" s="13" t="s">
+      <c r="N19" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="O19" s="17" t="s">
+      <c r="O19" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="P19" s="17"/>
+      <c r="P19" s="14"/>
       <c r="R19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="E20" s="20" t="s">
-        <v>6</v>
-      </c>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="G20" s="22"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="7">
-        <v>6.5</v>
-      </c>
+      <c r="I20" s="7"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="L20" s="14">
+      <c r="K20" s="6"/>
+      <c r="L20" s="18">
         <v>3</v>
       </c>
-      <c r="M20" s="11"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="U20" s="19"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="U20" s="11"/>
     </row>
     <row r="21" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
       <c r="E21" s="20"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="12"/>
-      <c r="K21" s="7">
-        <v>6.5</v>
-      </c>
-      <c r="L21" s="15"/>
-      <c r="M21" s="11">
+      <c r="G21" s="22"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="16">
         <v>5</v>
       </c>
-      <c r="N21" s="13" t="s">
+      <c r="N21" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
     </row>
     <row r="22" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="11">
+      <c r="G22" s="22"/>
+      <c r="H22" s="16">
         <v>7</v>
       </c>
-      <c r="M22" s="11"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
     </row>
     <row r="23" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="11"/>
-      <c r="M23" s="11">
+      <c r="G23" s="22"/>
+      <c r="H23" s="16"/>
+      <c r="M23" s="16">
         <v>4</v>
       </c>
-      <c r="N23" s="13" t="s">
+      <c r="N23" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="O23" s="17" t="s">
+      <c r="O23" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="P23" s="17"/>
+      <c r="P23" s="14"/>
     </row>
     <row r="24" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="12" t="s">
         <v>9</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="L24" s="14">
+      <c r="K24" s="6"/>
+      <c r="L24" s="18">
         <v>2</v>
       </c>
-      <c r="M24" s="11"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
     </row>
     <row r="25" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="22"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="K25" s="7">
-        <v>6.5</v>
-      </c>
-      <c r="L25" s="15"/>
-      <c r="M25" s="11">
+      <c r="I25" s="6"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="16">
         <v>3</v>
       </c>
-      <c r="N25" s="13" t="s">
+      <c r="N25" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
     </row>
     <row r="26" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="7">
-        <v>6.5</v>
-      </c>
+      <c r="G26" s="7"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="16" t="s">
+      <c r="I26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="16">
         <v>5</v>
       </c>
-      <c r="M26" s="11"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
     </row>
     <row r="27" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="11"/>
-      <c r="M27" s="11">
+      <c r="I27" s="23"/>
+      <c r="J27" s="16"/>
+      <c r="M27" s="16">
         <v>2</v>
       </c>
-      <c r="N27" s="13" t="s">
+      <c r="N27" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="O27" s="17" t="s">
+      <c r="O27" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="P27" s="17"/>
+      <c r="P27" s="14"/>
     </row>
     <row r="28" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="7">
-        <v>6.5</v>
-      </c>
+      <c r="I28" s="7"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="L28" s="14">
+      <c r="K28" s="6"/>
+      <c r="L28" s="18">
         <v>1</v>
       </c>
-      <c r="M28" s="11"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
     </row>
     <row r="29" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="K29" s="7">
-        <v>6.5</v>
-      </c>
-      <c r="L29" s="15"/>
-      <c r="M29" s="11">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="16">
         <v>1</v>
       </c>
-      <c r="N29" s="13" t="s">
+      <c r="N29" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
     </row>
     <row r="30" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
     <mergeCell ref="A1:C45"/>
     <mergeCell ref="O27:P30"/>
     <mergeCell ref="O23:P26"/>
@@ -1063,23 +1044,6 @@
     <mergeCell ref="E20:E22"/>
     <mergeCell ref="G20:G23"/>
     <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I18:I19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DSSportCompetitionSys/Template/8Template.xlsx
+++ b/DSSportCompetitionSys/Template/8Template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20351"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04803AA5-BF3B-4EA3-ACA8-22DCC42F2A93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2F75E5-FF9A-402E-B029-5368ACE1C3EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>杜甫(浙江队)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,14 @@
   </si>
   <si>
     <t>杜甫(浙江队)杜甫(浙江队)杜甫(浙江队)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -208,9 +216,6 @@
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -236,24 +241,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -263,8 +271,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,458 +584,469 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="3.77734375" style="5"/>
-    <col min="11" max="11" width="3.77734375" style="5"/>
-    <col min="14" max="14" width="21.44140625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="3.77734375" style="4"/>
+    <col min="11" max="11" width="3.77734375" style="4"/>
+    <col min="14" max="14" width="21.44140625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15" spans="1:16" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="M15" s="16">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="R2" s="13"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="R3" s="13"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="R4" s="13"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="R5" s="13"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="R6" s="13"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="R7" s="13"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="R8" s="13"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="R9" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="R10" s="19"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="R11" s="19"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="R13" s="23"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="R14" s="23"/>
+    </row>
+    <row r="15" spans="1:18" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="M15" s="13">
         <v>8</v>
       </c>
       <c r="N15" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="14"/>
-    </row>
-    <row r="16" spans="1:16" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="I16" s="8"/>
+      <c r="P15" s="18"/>
+      <c r="R15" s="23"/>
+    </row>
+    <row r="16" spans="1:18" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="18">
+      <c r="K16" s="5"/>
+      <c r="L16" s="14">
         <v>4</v>
       </c>
-      <c r="M16" s="16"/>
+      <c r="M16" s="13"/>
       <c r="N16" s="17"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="9"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="16">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="8"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="13">
         <v>7</v>
       </c>
       <c r="N17" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="23" t="s">
+      <c r="H18" s="3"/>
+      <c r="I18" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="13">
         <v>6</v>
       </c>
-      <c r="M18" s="16"/>
+      <c r="M18" s="13"/>
       <c r="N18" s="17"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Z18" s="13"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="R18" s="23"/>
+      <c r="Z18" s="12"/>
     </row>
     <row r="19" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="16"/>
-      <c r="M19" s="16">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="13"/>
+      <c r="M19" s="13">
         <v>6</v>
       </c>
       <c r="N19" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="O19" s="14" t="s">
+      <c r="O19" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="P19" s="14"/>
-      <c r="R19" s="2"/>
+      <c r="P19" s="18"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
       <c r="E20" s="20"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="2"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="7"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="6"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="18">
+      <c r="K20" s="5"/>
+      <c r="L20" s="14">
         <v>3</v>
       </c>
-      <c r="M20" s="16"/>
+      <c r="M20" s="13"/>
       <c r="N20" s="17"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="U20" s="11"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="R20" s="23"/>
+      <c r="U20" s="10"/>
     </row>
     <row r="21" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="2"/>
       <c r="G21" s="22"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="16">
+      <c r="K21" s="6"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="13">
         <v>5</v>
       </c>
       <c r="N21" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="R21" s="19" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="21"/>
-      <c r="F22" s="4"/>
+      <c r="F22" s="3"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="16">
+      <c r="H22" s="13">
         <v>7</v>
       </c>
-      <c r="M22" s="16"/>
+      <c r="M22" s="13"/>
       <c r="N22" s="17"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="R22" s="19"/>
     </row>
     <row r="23" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
-      <c r="F23" s="3"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="F23" s="2"/>
       <c r="G23" s="22"/>
-      <c r="H23" s="16"/>
-      <c r="M23" s="16">
+      <c r="H23" s="13"/>
+      <c r="M23" s="13">
         <v>4</v>
       </c>
       <c r="N23" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="O23" s="14" t="s">
+      <c r="O23" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="P23" s="14"/>
+      <c r="P23" s="18"/>
+      <c r="R23" s="19"/>
     </row>
     <row r="24" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="12" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="8"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="18">
+      <c r="K24" s="5"/>
+      <c r="L24" s="14">
         <v>2</v>
       </c>
-      <c r="M24" s="16"/>
+      <c r="M24" s="13"/>
       <c r="N24" s="17"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
     </row>
     <row r="25" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="6"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="16">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="5"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="13">
         <v>3</v>
       </c>
       <c r="N25" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
     </row>
     <row r="26" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="23" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="13">
         <v>5</v>
       </c>
-      <c r="M26" s="16"/>
+      <c r="M26" s="13"/>
       <c r="N26" s="17"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
     </row>
     <row r="27" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="16"/>
-      <c r="M27" s="16">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="13"/>
+      <c r="M27" s="13">
         <v>2</v>
       </c>
       <c r="N27" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="O27" s="14" t="s">
+      <c r="O27" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="P27" s="14"/>
+      <c r="P27" s="18"/>
     </row>
     <row r="28" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="7"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="6"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="18">
+      <c r="K28" s="5"/>
+      <c r="L28" s="14">
         <v>1</v>
       </c>
-      <c r="M28" s="16"/>
+      <c r="M28" s="13"/>
       <c r="N28" s="17"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
     </row>
     <row r="29" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="16">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="13">
         <v>1</v>
       </c>
       <c r="N29" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
     </row>
     <row r="30" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="M30" s="16"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="M30" s="13"/>
       <c r="N30" s="17"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+    </row>
+    <row r="35" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
+  <mergeCells count="37">
+    <mergeCell ref="R2:R8"/>
+    <mergeCell ref="R9:R11"/>
+    <mergeCell ref="R13:R20"/>
+    <mergeCell ref="R21:R23"/>
     <mergeCell ref="A1:C45"/>
     <mergeCell ref="O27:P30"/>
     <mergeCell ref="O23:P26"/>
@@ -1044,6 +1063,23 @@
     <mergeCell ref="E20:E22"/>
     <mergeCell ref="G20:G23"/>
     <mergeCell ref="L28:L29"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="M21:M22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
